--- a/team_specific_matrix/Duke_B.xlsx
+++ b/team_specific_matrix/Duke_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2041884816753927</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="C2">
-        <v>0.5392670157068062</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01570680628272251</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1413612565445026</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09947643979057591</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009523809523809525</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C3">
-        <v>0.04761904761904762</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0380952380952381</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7047619047619048</v>
+        <v>0.7196969696969697</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1893939393939394</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6086956521739131</v>
+        <v>0.46875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3043478260869565</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05590062111801242</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07453416149068323</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2236024844720497</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04347826086956522</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1490683229813665</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R6">
-        <v>0.05590062111801242</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="S6">
-        <v>0.3975155279503105</v>
+        <v>0.3849765258215962</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1124260355029586</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005917159763313609</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08875739644970414</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1479289940828402</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01183431952662722</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1834319526627219</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="S7">
-        <v>0.3727810650887574</v>
+        <v>0.354679802955665</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08854166666666667</v>
+        <v>0.08315565031982942</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015625</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05729166666666666</v>
+        <v>0.06609808102345416</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1041666666666667</v>
+        <v>0.1087420042643923</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0234375</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2135416666666667</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="R8">
-        <v>0.1145833333333333</v>
+        <v>0.1108742004264392</v>
       </c>
       <c r="S8">
-        <v>0.3828125</v>
+        <v>0.4008528784648188</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05487804878048781</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01829268292682927</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06707317073170732</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1036585365853658</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006097560975609756</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2621951219512195</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R9">
-        <v>0.04878048780487805</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="S9">
-        <v>0.4390243902439024</v>
+        <v>0.4476190476190476</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09142857142857143</v>
+        <v>0.09400921658986175</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.016</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06628571428571428</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.152</v>
+        <v>0.1456221198156682</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.024</v>
+        <v>0.023963133640553</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.192</v>
+        <v>0.1824884792626728</v>
       </c>
       <c r="R10">
-        <v>0.08114285714285714</v>
+        <v>0.07926267281105991</v>
       </c>
       <c r="S10">
-        <v>0.3771428571428572</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1368821292775665</v>
+        <v>0.1339869281045752</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09125475285171103</v>
+        <v>0.08169934640522876</v>
       </c>
       <c r="K11">
-        <v>0.2129277566539924</v>
+        <v>0.1993464052287582</v>
       </c>
       <c r="L11">
-        <v>0.5361216730038023</v>
+        <v>0.565359477124183</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02281368821292776</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7919463087248322</v>
+        <v>0.7650273224043715</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1476510067114094</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="K12">
-        <v>0.006711409395973154</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="L12">
-        <v>0.02684563758389262</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02684563758389262</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6875</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01197604790419162</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1377245508982036</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="I15">
-        <v>0.0718562874251497</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="J15">
-        <v>0.3532934131736527</v>
+        <v>0.3399014778325123</v>
       </c>
       <c r="K15">
-        <v>0.08982035928143713</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0658682634730539</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2694610778443114</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02702702702702703</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2702702702702703</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="I16">
-        <v>0.06306306306306306</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="J16">
-        <v>0.3513513513513514</v>
+        <v>0.3656716417910448</v>
       </c>
       <c r="K16">
-        <v>0.1171171171171171</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009009009009009009</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07207207207207207</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09009009009009009</v>
+        <v>0.09701492537313433</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01445086705202312</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2023121387283237</v>
+        <v>0.1995192307692308</v>
       </c>
       <c r="I17">
-        <v>0.1069364161849711</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="J17">
-        <v>0.3930635838150289</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K17">
-        <v>0.115606936416185</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0115606936416185</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05202312138728324</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1040462427745665</v>
+        <v>0.1105769230769231</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02097902097902098</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1678321678321678</v>
+        <v>0.1676300578034682</v>
       </c>
       <c r="I18">
-        <v>0.1118881118881119</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="J18">
-        <v>0.4125874125874126</v>
+        <v>0.4104046242774567</v>
       </c>
       <c r="K18">
-        <v>0.07692307692307693</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02797202797202797</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06293706293706294</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1188811188811189</v>
+        <v>0.1329479768786127</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0160427807486631</v>
+        <v>0.01686340640809443</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2491978609625669</v>
+        <v>0.2445193929173693</v>
       </c>
       <c r="I19">
-        <v>0.1016042780748663</v>
+        <v>0.1037099494097808</v>
       </c>
       <c r="J19">
-        <v>0.3090909090909091</v>
+        <v>0.315345699831366</v>
       </c>
       <c r="K19">
-        <v>0.1283422459893048</v>
+        <v>0.1222596964586847</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02352941176470588</v>
+        <v>0.02529510961214165</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06096256684491978</v>
+        <v>0.06155143338954469</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1112299465240642</v>
+        <v>0.1104553119730186</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Duke_B.xlsx
+++ b/team_specific_matrix/Duke_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1929824561403509</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="C2">
-        <v>0.5657894736842105</v>
+        <v>0.5568627450980392</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01754385964912281</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1271929824561404</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09649122807017543</v>
+        <v>0.1137254901960784</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007575757575757576</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C3">
-        <v>0.03787878787878788</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7196969696969697</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1893939393939394</v>
+        <v>0.1944444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.46875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.40625</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05164319248826291</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004694835680751174</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07042253521126761</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2253521126760563</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04225352112676056</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1596244131455399</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="R6">
-        <v>0.06103286384976526</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S6">
-        <v>0.3849765258215962</v>
+        <v>0.3852813852813853</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09359605911330049</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009852216748768473</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09359605911330049</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1527093596059113</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01477832512315271</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2068965517241379</v>
+        <v>0.2064220183486239</v>
       </c>
       <c r="R7">
-        <v>0.07389162561576355</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="S7">
-        <v>0.354679802955665</v>
+        <v>0.3486238532110092</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08315565031982942</v>
+        <v>0.08565737051792828</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01492537313432836</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06609808102345416</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1087420042643923</v>
+        <v>0.1055776892430279</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02132196162046908</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1940298507462687</v>
+        <v>0.203187250996016</v>
       </c>
       <c r="R8">
-        <v>0.1108742004264392</v>
+        <v>0.1095617529880478</v>
       </c>
       <c r="S8">
-        <v>0.4008528784648188</v>
+        <v>0.3924302788844621</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05714285714285714</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0761904761904762</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1047619047619048</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009523809523809525</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2476190476190476</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="R9">
-        <v>0.04285714285714286</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="S9">
-        <v>0.4476190476190476</v>
+        <v>0.4396551724137931</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09400921658986175</v>
+        <v>0.0997398091934085</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0184331797235023</v>
+        <v>0.01734605377276669</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06912442396313365</v>
+        <v>0.06764960971379011</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1456221198156682</v>
+        <v>0.1431049436253252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.023963133640553</v>
+        <v>0.0225498699045967</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1824884792626728</v>
+        <v>0.186470078057242</v>
       </c>
       <c r="R10">
-        <v>0.07926267281105991</v>
+        <v>0.07718993928881179</v>
       </c>
       <c r="S10">
-        <v>0.3870967741935484</v>
+        <v>0.385949696444059</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1339869281045752</v>
+        <v>0.1432926829268293</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08169934640522876</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="K11">
-        <v>0.1993464052287582</v>
+        <v>0.2042682926829268</v>
       </c>
       <c r="L11">
-        <v>0.565359477124183</v>
+        <v>0.5548780487804879</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0196078431372549</v>
+        <v>0.01829268292682927</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7650273224043715</v>
+        <v>0.7668393782383419</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1639344262295082</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="K12">
-        <v>0.01092896174863388</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="L12">
-        <v>0.0273224043715847</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03278688524590164</v>
+        <v>0.0310880829015544</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7045454545454546</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009852216748768473</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1576354679802956</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.07389162561576355</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J15">
-        <v>0.3399014778325123</v>
+        <v>0.3380952380952381</v>
       </c>
       <c r="K15">
-        <v>0.08374384236453201</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05911330049261083</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2758620689655172</v>
+        <v>0.2714285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02238805970149254</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2462686567164179</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="I16">
-        <v>0.06716417910447761</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="J16">
-        <v>0.3656716417910448</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K16">
-        <v>0.1194029850746269</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02238805970149254</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05970149253731343</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09701492537313433</v>
+        <v>0.09027777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01682692307692308</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1995192307692308</v>
+        <v>0.2048458149779736</v>
       </c>
       <c r="I17">
-        <v>0.1129807692307692</v>
+        <v>0.1079295154185022</v>
       </c>
       <c r="J17">
-        <v>0.3846153846153846</v>
+        <v>0.3766519823788546</v>
       </c>
       <c r="K17">
-        <v>0.1057692307692308</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01682692307692308</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05288461538461538</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1105769230769231</v>
+        <v>0.1123348017621145</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01734104046242774</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1676300578034682</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="I18">
-        <v>0.115606936416185</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="J18">
-        <v>0.4104046242774567</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="K18">
-        <v>0.06936416184971098</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02312138728323699</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06358381502890173</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1329479768786127</v>
+        <v>0.1297297297297297</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01686340640809443</v>
+        <v>0.01811023622047244</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2445193929173693</v>
+        <v>0.2409448818897638</v>
       </c>
       <c r="I19">
-        <v>0.1037099494097808</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="J19">
-        <v>0.315345699831366</v>
+        <v>0.315748031496063</v>
       </c>
       <c r="K19">
-        <v>0.1222596964586847</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02529510961214165</v>
+        <v>0.02440944881889764</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06155143338954469</v>
+        <v>0.05984251968503937</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1104553119730186</v>
+        <v>0.1125984251968504</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Duke_B.xlsx
+++ b/team_specific_matrix/Duke_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1882352941176471</v>
+        <v>0.1992481203007519</v>
       </c>
       <c r="C2">
-        <v>0.5568627450980392</v>
+        <v>0.5375939849624061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01568627450980392</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1254901960784314</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1137254901960784</v>
+        <v>0.112781954887218</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006944444444444444</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C3">
-        <v>0.03472222222222222</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7222222222222222</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1944444444444444</v>
+        <v>0.1931034482758621</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4545454545454545</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4242424242424243</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04761904761904762</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004329004329004329</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06493506493506493</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2337662337662338</v>
+        <v>0.2259414225941423</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03896103896103896</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1645021645021645</v>
+        <v>0.1757322175732217</v>
       </c>
       <c r="R6">
-        <v>0.06060606060606061</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="S6">
-        <v>0.3852813852813853</v>
+        <v>0.3765690376569037</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1009174311926606</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009174311926605505</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0963302752293578</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1422018348623853</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01376146788990826</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2064220183486239</v>
+        <v>0.2081447963800905</v>
       </c>
       <c r="R7">
-        <v>0.08256880733944955</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="S7">
-        <v>0.3486238532110092</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08565737051792828</v>
+        <v>0.08587786259541985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01593625498007968</v>
+        <v>0.01717557251908397</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06772908366533864</v>
+        <v>0.06679389312977099</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055776892430279</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0199203187250996</v>
+        <v>0.02099236641221374</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.203187250996016</v>
+        <v>0.200381679389313</v>
       </c>
       <c r="R8">
-        <v>0.1095617529880478</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="S8">
-        <v>0.3924302788844621</v>
+        <v>0.3950381679389313</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06465517241379311</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01293103448275862</v>
+        <v>0.0125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08189655172413793</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103448275862069</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008620689655172414</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2413793103448276</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="R9">
-        <v>0.04741379310344827</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="S9">
-        <v>0.4396551724137931</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0997398091934085</v>
+        <v>0.09932659932659933</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01734605377276669</v>
+        <v>0.01683501683501683</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06764960971379011</v>
+        <v>0.06902356902356903</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1431049436253252</v>
+        <v>0.1456228956228956</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0225498699045967</v>
+        <v>0.02188552188552189</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.186470078057242</v>
+        <v>0.1902356902356902</v>
       </c>
       <c r="R10">
-        <v>0.07718993928881179</v>
+        <v>0.07491582491582492</v>
       </c>
       <c r="S10">
-        <v>0.385949696444059</v>
+        <v>0.3821548821548821</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1432926829268293</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07926829268292683</v>
+        <v>0.08083832335329341</v>
       </c>
       <c r="K11">
-        <v>0.2042682926829268</v>
+        <v>0.2035928143712575</v>
       </c>
       <c r="L11">
-        <v>0.5548780487804879</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01829268292682927</v>
+        <v>0.01796407185628742</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7668393782383419</v>
+        <v>0.7641025641025641</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658031088082902</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="K12">
-        <v>0.01036269430051814</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L12">
-        <v>0.02590673575129534</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0310880829015544</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2553191489361702</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06382978723404255</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01428571428571429</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1650943396226415</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J15">
-        <v>0.3380952380952381</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="K15">
-        <v>0.08095238095238096</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05714285714285714</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2714285714285714</v>
+        <v>0.2735849056603774</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2430555555555556</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="I16">
-        <v>0.06944444444444445</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3611111111111111</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1319444444444444</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09027777777777778</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01762114537444934</v>
+        <v>0.01684210526315789</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2048458149779736</v>
+        <v>0.208421052631579</v>
       </c>
       <c r="I17">
-        <v>0.1079295154185022</v>
+        <v>0.1073684210526316</v>
       </c>
       <c r="J17">
-        <v>0.3766519823788546</v>
+        <v>0.3747368421052631</v>
       </c>
       <c r="K17">
-        <v>0.1101321585903084</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01762114537444934</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05286343612334802</v>
+        <v>0.05052631578947368</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1123348017621145</v>
+        <v>0.1178947368421053</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01621621621621622</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1675675675675676</v>
+        <v>0.175531914893617</v>
       </c>
       <c r="I18">
-        <v>0.1189189189189189</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="J18">
-        <v>0.4054054054054054</v>
+        <v>0.398936170212766</v>
       </c>
       <c r="K18">
-        <v>0.07567567567567568</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02162162162162162</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06486486486486487</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1297297297297297</v>
+        <v>0.1329787234042553</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01811023622047244</v>
+        <v>0.01749049429657795</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2409448818897638</v>
+        <v>0.24106463878327</v>
       </c>
       <c r="I19">
-        <v>0.1102362204724409</v>
+        <v>0.1102661596958175</v>
       </c>
       <c r="J19">
-        <v>0.315748031496063</v>
+        <v>0.3140684410646388</v>
       </c>
       <c r="K19">
-        <v>0.1181102362204724</v>
+        <v>0.1163498098859316</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02440944881889764</v>
+        <v>0.02357414448669201</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007604562737642585</v>
       </c>
       <c r="O19">
-        <v>0.05984251968503937</v>
+        <v>0.05855513307984791</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1125984251968504</v>
+        <v>0.1178707224334601</v>
       </c>
     </row>
   </sheetData>
